--- a/logs_regression (4th copy).xlsx
+++ b/logs_regression (4th copy).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeff_lambda</t>
   </si>
   <si>
     <t xml:space="preserve">algorithm</t>
@@ -206,22 +209,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC65003"/>
+  <dimension ref="A1:AD64823"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A809" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A848" activeCellId="0" sqref="2:848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -252,7 +255,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -267,7 +270,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -301,7 +304,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>17</v>
@@ -312,187 +315,190 @@
       <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -673,94 +679,1090 @@
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1226" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1227" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1228" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1229" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1230" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1231" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1232" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1233" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1234" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1235" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1236" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1237" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1248" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1249" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1250" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1251" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1252" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1263" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1264" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1265" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1266" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1267" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1268" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1269" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1270" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1271" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1272" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1273" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1274" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1275" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1276" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1277" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1278" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1279" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1280" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1281" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1282" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1283" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1284" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1285" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1286" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1287" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1288" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1289" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1290" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1291" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1292" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1303" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1304" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1305" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1306" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1307" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1318" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1319" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1320" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1321" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1322" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1323" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1324" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1325" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1326" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1327" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1328" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1329" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1330" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1331" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1332" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1333" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1334" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1335" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1336" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1337" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1338" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1339" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1340" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1341" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1342" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1343" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1344" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1345" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1346" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1347" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1358" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1359" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1360" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1361" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1362" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1373" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1374" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1375" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1376" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1377" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1378" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1379" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1380" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1381" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1382" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1383" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1384" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1385" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1386" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1387" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1388" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1389" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1390" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1391" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1392" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1393" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1394" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1395" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1396" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1397" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1398" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1399" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1400" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1401" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1402" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1413" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1414" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1415" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1416" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1417" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1428" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1429" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1430" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1431" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1432" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1433" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1434" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1435" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1436" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1437" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1438" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1439" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1440" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1441" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1442" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1443" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1444" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1445" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1446" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1447" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1448" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1449" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1450" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1451" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1452" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1453" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1454" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1455" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1456" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1457" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1468" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1469" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1470" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1471" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1472" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1483" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1484" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1485" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1486" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1487" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1488" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1489" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1490" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1491" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1492" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1493" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1494" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1495" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1496" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1497" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1498" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1499" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1500" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1501" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1502" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1503" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1504" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1505" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1506" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1507" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1508" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1509" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1510" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1511" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1512" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1523" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1524" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1525" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1526" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1527" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1538" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1539" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1540" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1541" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1542" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1543" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1544" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1545" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1546" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1547" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1548" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1549" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1550" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1551" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1552" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1553" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1554" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1555" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1556" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1557" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1558" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1559" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1560" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1561" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1562" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1563" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1564" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1565" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1566" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1567" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1578" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1579" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1580" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1581" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1582" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1593" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1594" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1595" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1596" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1597" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1598" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1599" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1600" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1601" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1602" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1603" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1604" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1605" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1606" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1607" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1608" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1609" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1610" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1611" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1612" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1613" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1614" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1615" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1616" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1617" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1618" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1619" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1620" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1621" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1622" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
